--- a/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD1348B-C93C-444B-9804-2BB1B51653AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022C2C39-770E-467A-ADD0-71A131F5D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53F45F82-2EAC-45EF-A54A-10B1621845EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20A777D9-9F0B-48D2-B245-174487E0E6E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1025 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>&lt;2.000hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>67,34%</t>
   </si>
   <si>
@@ -98,9 +1085,6 @@
     <t>78,09%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>32,66%</t>
   </si>
   <si>
@@ -128,12 +1112,6 @@
     <t>32,45%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
     <t>71,57%</t>
   </si>
   <si>
@@ -188,9 +1166,6 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
     <t>74,8%</t>
   </si>
   <si>
@@ -209,9 +1184,6 @@
     <t>82,54%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
     <t>75,47%</t>
   </si>
   <si>
@@ -236,18 +1208,12 @@
     <t>22,1%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
     <t>20,2%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
     <t>67,69%</t>
   </si>
   <si>
@@ -296,9 +1262,6 @@
     <t>31,3%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
     <t>69,88%</t>
   </si>
   <si>
@@ -405,9 +1368,6 @@
   </si>
   <si>
     <t>27,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -819,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9366B8F1-F252-439D-BEB3-1E4E15082FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9E7D7-5D3D-48EA-83AA-0F0A328FBBD2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>67945</v>
+        <v>36630</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>101382</v>
+        <v>46654</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>169328</v>
+        <v>83284</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +1948,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>32960</v>
+        <v>78728</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>29351</v>
+        <v>66101</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +1978,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="N5" s="7">
-        <v>62310</v>
+        <v>144829</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +1999,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +2014,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +2029,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>441</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>392955</v>
+        <v>115692</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>768</v>
+        <v>152</v>
       </c>
       <c r="I7" s="7">
-        <v>452148</v>
+        <v>158539</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +2082,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1209</v>
+        <v>268</v>
       </c>
       <c r="N7" s="7">
-        <v>845103</v>
+        <v>274231</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="D8" s="7">
-        <v>156084</v>
+        <v>462962</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="I8" s="7">
-        <v>139653</v>
+        <v>417057</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +2133,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>395</v>
+        <v>878</v>
       </c>
       <c r="N8" s="7">
-        <v>295737</v>
+        <v>880019</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +2154,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>549039</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +2169,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>591801</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +2184,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>1140840</v>
+        <v>1154250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>710</v>
+        <v>193</v>
       </c>
       <c r="D10" s="7">
-        <v>776736</v>
+        <v>206918</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +2222,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1223</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>849474</v>
+        <v>264456</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +2237,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1933</v>
+        <v>434</v>
       </c>
       <c r="N10" s="7">
-        <v>1626211</v>
+        <v>471374</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>253</v>
+        <v>703</v>
       </c>
       <c r="D11" s="7">
-        <v>261652</v>
+        <v>754882</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +2273,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>290</v>
+        <v>666</v>
       </c>
       <c r="I11" s="7">
-        <v>207686</v>
+        <v>702877</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +2288,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>543</v>
+        <v>1369</v>
       </c>
       <c r="N11" s="7">
-        <v>469338</v>
+        <v>1457759</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>896</v>
       </c>
       <c r="D12" s="7">
-        <v>1038388</v>
+        <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +2324,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>907</v>
       </c>
       <c r="I12" s="7">
-        <v>1057160</v>
+        <v>967333</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +2339,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1803</v>
       </c>
       <c r="N12" s="7">
-        <v>2095549</v>
+        <v>1929133</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>476</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7">
-        <v>493270</v>
+        <v>142015</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +2377,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>774</v>
+        <v>212</v>
       </c>
       <c r="I13" s="7">
-        <v>661736</v>
+        <v>204426</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +2392,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1250</v>
+        <v>346</v>
       </c>
       <c r="N13" s="7">
-        <v>1155005</v>
+        <v>346441</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1444,7 +2404,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +2413,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="D14" s="7">
-        <v>235502</v>
+        <v>536494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>273</v>
+        <v>484</v>
       </c>
       <c r="I14" s="7">
-        <v>212635</v>
+        <v>479415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>473</v>
+        <v>991</v>
       </c>
       <c r="N14" s="7">
-        <v>448137</v>
+        <v>1015909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +2494,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +2511,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>722</v>
+        <v>195</v>
       </c>
       <c r="D16" s="7">
-        <v>673938</v>
+        <v>185446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>1195</v>
+        <v>252</v>
       </c>
       <c r="I16" s="7">
-        <v>867491</v>
+        <v>267287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1917</v>
+        <v>447</v>
       </c>
       <c r="N16" s="7">
-        <v>1541429</v>
+        <v>452734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +2568,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D17" s="7">
-        <v>290492</v>
+        <v>755942</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>365</v>
+        <v>745</v>
       </c>
       <c r="I17" s="7">
-        <v>281514</v>
+        <v>771325</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>647</v>
+        <v>1543</v>
       </c>
       <c r="N17" s="7">
-        <v>572006</v>
+        <v>1527266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="D18" s="7">
-        <v>964430</v>
+        <v>941388</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +2634,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>1149005</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +2649,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>1990</v>
       </c>
       <c r="N18" s="7">
-        <v>2113435</v>
+        <v>1980000</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1712,49 +2672,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2425</v>
+        <v>671</v>
       </c>
       <c r="D19" s="7">
-        <v>2404845</v>
+        <v>686702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
-        <v>4151</v>
+        <v>908</v>
       </c>
       <c r="I19" s="7">
-        <v>2932231</v>
+        <v>941363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>6576</v>
+        <v>1579</v>
       </c>
       <c r="N19" s="7">
-        <v>5337076</v>
+        <v>1628064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,19 +2723,3208 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>2542</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2589007</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2436775</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5025783</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3275709</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3296</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3378138</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6653847</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDCA0B1-AA24-4B75-A637-8F73ED15F2CB}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51723</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="7">
+        <v>60</v>
+      </c>
+      <c r="I4" s="7">
+        <v>69768</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="7">
+        <v>115</v>
+      </c>
+      <c r="N4" s="7">
+        <v>121491</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7">
+        <v>64042</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="7">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42137</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="7">
+        <v>106</v>
+      </c>
+      <c r="N5" s="7">
+        <v>106179</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>115765</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>111905</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>221</v>
+      </c>
+      <c r="N6" s="7">
+        <v>227670</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>224</v>
+      </c>
+      <c r="D7" s="7">
+        <v>237847</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="7">
+        <v>243</v>
+      </c>
+      <c r="I7" s="7">
+        <v>258576</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="7">
+        <v>467</v>
+      </c>
+      <c r="N7" s="7">
+        <v>496423</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>327</v>
+      </c>
+      <c r="D8" s="7">
+        <v>348786</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7">
+        <v>308</v>
+      </c>
+      <c r="I8" s="7">
+        <v>326569</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="7">
+        <v>635</v>
+      </c>
+      <c r="N8" s="7">
+        <v>675355</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>551</v>
+      </c>
+      <c r="D9" s="7">
+        <v>586633</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>551</v>
+      </c>
+      <c r="I9" s="7">
+        <v>585145</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1102</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1171778</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>321</v>
+      </c>
+      <c r="D10" s="7">
+        <v>345510</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>423</v>
+      </c>
+      <c r="I10" s="7">
+        <v>461550</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="7">
+        <v>744</v>
+      </c>
+      <c r="N10" s="7">
+        <v>807060</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>611</v>
+      </c>
+      <c r="D11" s="7">
+        <v>668386</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7">
+        <v>515</v>
+      </c>
+      <c r="I11" s="7">
+        <v>567549</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1126</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1235935</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>932</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1013896</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>938</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1029099</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1870</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2042995</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>187</v>
+      </c>
+      <c r="D13" s="7">
+        <v>206342</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="7">
+        <v>237</v>
+      </c>
+      <c r="I13" s="7">
+        <v>266699</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="7">
+        <v>424</v>
+      </c>
+      <c r="N13" s="7">
+        <v>473041</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>500</v>
+      </c>
+      <c r="D14" s="7">
+        <v>549196</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="7">
+        <v>467</v>
+      </c>
+      <c r="I14" s="7">
+        <v>509414</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M14" s="7">
+        <v>967</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1058610</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>687</v>
+      </c>
+      <c r="D15" s="7">
+        <v>755538</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>704</v>
+      </c>
+      <c r="I15" s="7">
+        <v>776113</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1531651</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>365</v>
+      </c>
+      <c r="D16" s="7">
+        <v>386886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="7">
+        <v>550</v>
+      </c>
+      <c r="I16" s="7">
+        <v>581201</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="7">
+        <v>915</v>
+      </c>
+      <c r="N16" s="7">
+        <v>968087</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>545</v>
+      </c>
+      <c r="D17" s="7">
+        <v>560853</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7">
+        <v>449</v>
+      </c>
+      <c r="I17" s="7">
+        <v>465014</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" s="7">
+        <v>994</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1025867</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>910</v>
+      </c>
+      <c r="D18" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1046215</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1909</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1993954</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1152</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1228309</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1637794</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2665</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2866102</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2191263</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1778</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1910683</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3828</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4101946</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3419572</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3291</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3548477</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6493</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6968048</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA438E55-07C8-4E7B-9F9A-F9C037C02312}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50058</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="7">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7">
+        <v>53269</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="7">
+        <v>101</v>
+      </c>
+      <c r="N4" s="7">
+        <v>103328</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>65456</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="7">
+        <v>62</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60091</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="7">
+        <v>126</v>
+      </c>
+      <c r="N5" s="7">
+        <v>125546</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>112</v>
+      </c>
+      <c r="D6" s="7">
+        <v>115514</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>113360</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>227</v>
+      </c>
+      <c r="N6" s="7">
+        <v>228874</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7">
+        <v>168271</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="7">
+        <v>206</v>
+      </c>
+      <c r="I7" s="7">
+        <v>209644</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="7">
+        <v>368</v>
+      </c>
+      <c r="N7" s="7">
+        <v>377915</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>374</v>
+      </c>
+      <c r="D8" s="7">
+        <v>386942</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="7">
+        <v>342</v>
+      </c>
+      <c r="I8" s="7">
+        <v>346940</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="7">
+        <v>716</v>
+      </c>
+      <c r="N8" s="7">
+        <v>733882</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>536</v>
+      </c>
+      <c r="D9" s="7">
+        <v>555213</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>548</v>
+      </c>
+      <c r="I9" s="7">
+        <v>556584</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1084</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1111797</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>223</v>
+      </c>
+      <c r="D10" s="7">
+        <v>244605</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="7">
+        <v>283</v>
+      </c>
+      <c r="I10" s="7">
+        <v>306646</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="7">
+        <v>506</v>
+      </c>
+      <c r="N10" s="7">
+        <v>551251</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>727</v>
+      </c>
+      <c r="D11" s="7">
+        <v>776740</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="7">
+        <v>693</v>
+      </c>
+      <c r="I11" s="7">
+        <v>735174</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1420</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1511914</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>950</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1021345</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>976</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1041820</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1926</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2063165</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>168</v>
+      </c>
+      <c r="D13" s="7">
+        <v>177931</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="7">
+        <v>233</v>
+      </c>
+      <c r="I13" s="7">
+        <v>252126</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M13" s="7">
+        <v>401</v>
+      </c>
+      <c r="N13" s="7">
+        <v>430057</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>520</v>
+      </c>
+      <c r="D14" s="7">
+        <v>571448</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="7">
+        <v>497</v>
+      </c>
+      <c r="I14" s="7">
+        <v>526413</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1017</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1097861</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>688</v>
+      </c>
+      <c r="D15" s="7">
+        <v>749379</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>730</v>
+      </c>
+      <c r="I15" s="7">
+        <v>778539</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1418</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1527918</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>286</v>
+      </c>
+      <c r="D16" s="7">
+        <v>294472</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="7">
+        <v>382</v>
+      </c>
+      <c r="I16" s="7">
+        <v>426527</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M16" s="7">
+        <v>668</v>
+      </c>
+      <c r="N16" s="7">
+        <v>721000</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>644</v>
+      </c>
+      <c r="D17" s="7">
+        <v>641248</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="7">
+        <v>571</v>
+      </c>
+      <c r="I17" s="7">
+        <v>610954</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1215</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1252201</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>930</v>
+      </c>
+      <c r="D18" s="7">
+        <v>935720</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>953</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1037481</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1883</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1973201</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>887</v>
+      </c>
+      <c r="D19" s="7">
+        <v>935337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1248213</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2183550</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2329</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2441835</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2165</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2279571</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4494</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4721406</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3216</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3377172</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3322</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3527784</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6538</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6904956</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF9A8D7-64EF-4A67-936E-53746FB787D5}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>67945</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="7">
+        <v>191</v>
+      </c>
+      <c r="I4" s="7">
+        <v>101382</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4" s="7">
+        <v>267</v>
+      </c>
+      <c r="N4" s="7">
+        <v>169328</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32960</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="7">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>29351</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="7">
+        <v>93</v>
+      </c>
+      <c r="N5" s="7">
+        <v>62310</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100905</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>243</v>
+      </c>
+      <c r="I6" s="7">
+        <v>130733</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>360</v>
+      </c>
+      <c r="N6" s="7">
+        <v>231638</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>441</v>
+      </c>
+      <c r="D7" s="7">
+        <v>392955</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="7">
+        <v>768</v>
+      </c>
+      <c r="I7" s="7">
+        <v>452148</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1209</v>
+      </c>
+      <c r="N7" s="7">
+        <v>845103</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>170</v>
+      </c>
+      <c r="D8" s="7">
+        <v>156084</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H8" s="7">
+        <v>225</v>
+      </c>
+      <c r="I8" s="7">
+        <v>139653</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M8" s="7">
+        <v>395</v>
+      </c>
+      <c r="N8" s="7">
+        <v>295737</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>611</v>
+      </c>
+      <c r="D9" s="7">
+        <v>549039</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>993</v>
+      </c>
+      <c r="I9" s="7">
+        <v>591801</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1604</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1140840</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>710</v>
+      </c>
+      <c r="D10" s="7">
+        <v>776736</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1223</v>
+      </c>
+      <c r="I10" s="7">
+        <v>849474</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1933</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1626211</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>253</v>
+      </c>
+      <c r="D11" s="7">
+        <v>261652</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="7">
+        <v>290</v>
+      </c>
+      <c r="I11" s="7">
+        <v>207686</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M11" s="7">
+        <v>543</v>
+      </c>
+      <c r="N11" s="7">
+        <v>469338</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>963</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1038388</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1057160</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2476</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2095549</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>476</v>
+      </c>
+      <c r="D13" s="7">
+        <v>493270</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="7">
+        <v>774</v>
+      </c>
+      <c r="I13" s="7">
+        <v>661736</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1250</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1155005</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>200</v>
+      </c>
+      <c r="D14" s="7">
+        <v>235502</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="7">
+        <v>273</v>
+      </c>
+      <c r="I14" s="7">
+        <v>212635</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M14" s="7">
+        <v>473</v>
+      </c>
+      <c r="N14" s="7">
+        <v>448137</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>676</v>
+      </c>
+      <c r="D15" s="7">
+        <v>728772</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1047</v>
+      </c>
+      <c r="I15" s="7">
+        <v>874371</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1723</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1603142</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>722</v>
+      </c>
+      <c r="D16" s="7">
+        <v>673938</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1195</v>
+      </c>
+      <c r="I16" s="7">
+        <v>867491</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1917</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1541429</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>282</v>
+      </c>
+      <c r="D17" s="7">
+        <v>290492</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="7">
+        <v>365</v>
+      </c>
+      <c r="I17" s="7">
+        <v>281514</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M17" s="7">
+        <v>647</v>
+      </c>
+      <c r="N17" s="7">
+        <v>572006</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>964430</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1560</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1149005</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2564</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2113435</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2425</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2404845</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4151</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2932231</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6576</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5337076</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
         <v>946</v>
       </c>
       <c r="D20" s="7">
         <v>976689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1205</v>
@@ -1784,13 +5933,13 @@
         <v>870839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>2151</v>
@@ -1799,13 +5948,13 @@
         <v>1847528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022C2C39-770E-467A-ADD0-71A131F5D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD5CD70-E060-4839-B9CC-C26597D69D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20A777D9-9F0B-48D2-B245-174487E0E6E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6FCB83E-10AF-4ED0-9A83-BDE3726F2660}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>31,75%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>68,25%</t>
   </si>
   <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1234 +140,1228 @@
     <t>19,99%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>21,43%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>20,14%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>68,7%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>31,3%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>69,88%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>70,73%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>29,27%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>79,22%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>20,78%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9E7D7-5D3D-48EA-83AA-0F0A328FBBD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74101669-3CF9-4BFA-843F-DA11E99089CD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2684,7 +2678,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>908</v>
@@ -2693,13 +2687,13 @@
         <v>941363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1579</v>
@@ -2708,13 +2702,13 @@
         <v>1628064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2723,13 @@
         <v>2589007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2388</v>
@@ -2744,13 +2738,13 @@
         <v>2436775</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4930</v>
@@ -2759,13 +2753,13 @@
         <v>5025783</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDCA0B1-AA24-4B75-A637-8F73ED15F2CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AE9C48-E655-4B89-9FB0-9FD8E4978BAB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2960,13 @@
         <v>51723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -2981,13 +2975,13 @@
         <v>69768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -2996,13 +2990,13 @@
         <v>121491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3011,13 @@
         <v>64042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>39</v>
@@ -3032,13 +3026,13 @@
         <v>42137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>106</v>
@@ -3047,13 +3041,13 @@
         <v>106179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3115,13 @@
         <v>237847</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -3136,13 +3130,13 @@
         <v>258576</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>467</v>
@@ -3151,13 +3145,13 @@
         <v>496423</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3166,13 @@
         <v>348786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>308</v>
@@ -3187,13 +3181,13 @@
         <v>326569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -3202,13 +3196,13 @@
         <v>675355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3270,13 @@
         <v>345510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>423</v>
@@ -3291,13 +3285,13 @@
         <v>461550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>744</v>
@@ -3306,13 +3300,13 @@
         <v>807060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3321,13 @@
         <v>668386</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>515</v>
@@ -3342,13 +3336,13 @@
         <v>567549</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1126</v>
@@ -3357,13 +3351,13 @@
         <v>1235935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3425,13 @@
         <v>206342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>237</v>
@@ -3446,13 +3440,13 @@
         <v>266699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -3461,13 +3455,13 @@
         <v>473041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3476,13 @@
         <v>549196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -3497,13 +3491,13 @@
         <v>509414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
@@ -3512,13 +3506,13 @@
         <v>1058610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>386886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>550</v>
@@ -3601,13 +3595,13 @@
         <v>581201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>915</v>
@@ -3616,13 +3610,13 @@
         <v>968087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3631,13 @@
         <v>560853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3652,13 +3646,13 @@
         <v>465014</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -3667,13 +3661,13 @@
         <v>1025867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3735,13 @@
         <v>1228309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1513</v>
@@ -3756,13 +3750,13 @@
         <v>1637794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>2665</v>
@@ -3771,13 +3765,13 @@
         <v>2866102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3786,13 @@
         <v>2191263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1778</v>
@@ -3807,13 +3801,13 @@
         <v>1910683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>3828</v>
@@ -3822,13 +3816,13 @@
         <v>4101946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA438E55-07C8-4E7B-9F9A-F9C037C02312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE89B7-1468-4298-BBFD-4E88D5BC60E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +4023,13 @@
         <v>50058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -4044,13 +4038,13 @@
         <v>53269</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -4059,10 +4053,10 @@
         <v>103328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>238</v>
@@ -4080,13 +4074,13 @@
         <v>65456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -4095,13 +4089,13 @@
         <v>60091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -4110,13 +4104,13 @@
         <v>125546</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>168271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -4199,13 +4193,13 @@
         <v>209644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>368</v>
@@ -4214,13 +4208,13 @@
         <v>377915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4229,13 @@
         <v>386942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -4250,13 +4244,13 @@
         <v>346940</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -4265,13 +4259,13 @@
         <v>733882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>244605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -4354,13 +4348,13 @@
         <v>306646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>506</v>
@@ -4369,13 +4363,13 @@
         <v>551251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>776740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>693</v>
@@ -4405,13 +4399,13 @@
         <v>735174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>1420</v>
@@ -4420,13 +4414,13 @@
         <v>1511914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>177931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -4509,13 +4503,13 @@
         <v>252126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>401</v>
@@ -4524,13 +4518,13 @@
         <v>430057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4539,13 @@
         <v>571448</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4560,13 +4554,13 @@
         <v>526413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -4575,13 +4569,13 @@
         <v>1097861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4643,13 @@
         <v>294472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>382</v>
@@ -4664,13 +4658,13 @@
         <v>426527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>668</v>
@@ -4679,13 +4673,13 @@
         <v>721000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4694,13 @@
         <v>641248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>571</v>
@@ -4715,10 +4709,10 @@
         <v>610954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>316</v>
@@ -4947,7 +4941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF9A8D7-64EF-4A67-936E-53746FB787D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97A696-F47B-4C06-9E94-65B4728976D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5125,10 +5119,10 @@
         <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5137,13 @@
         <v>32960</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -5158,13 +5152,13 @@
         <v>29351</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -5173,13 +5167,13 @@
         <v>62310</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5241,13 @@
         <v>392955</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>768</v>
@@ -5262,13 +5256,13 @@
         <v>452148</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>1209</v>
@@ -5277,13 +5271,13 @@
         <v>845103</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5292,13 @@
         <v>156084</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -5313,13 +5307,13 @@
         <v>139653</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>395</v>
@@ -5328,13 +5322,13 @@
         <v>295737</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5396,13 @@
         <v>776736</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>1223</v>
@@ -5417,13 +5411,13 @@
         <v>849474</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>1933</v>
@@ -5432,13 +5426,13 @@
         <v>1626211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5447,13 @@
         <v>261652</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -5468,13 +5462,13 @@
         <v>207686</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>543</v>
@@ -5483,7 +5477,7 @@
         <v>469338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>389</v>
@@ -5593,7 +5587,7 @@
         <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5602,13 @@
         <v>235502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>273</v>
@@ -5623,13 +5617,13 @@
         <v>212635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>473</v>
@@ -5638,13 +5632,13 @@
         <v>448137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5706,13 @@
         <v>673938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>1195</v>
@@ -5727,13 +5721,13 @@
         <v>867491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1917</v>
@@ -5742,13 +5736,13 @@
         <v>1541429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5757,13 @@
         <v>290492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -5778,13 +5772,13 @@
         <v>281514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>647</v>
@@ -5793,10 +5787,10 @@
         <v>572006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>424</v>
@@ -5885,10 +5879,10 @@
         <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>6576</v>
@@ -5897,13 +5891,13 @@
         <v>5337076</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5912,13 @@
         <v>976689</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1205</v>
@@ -5933,13 +5927,13 @@
         <v>870839</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>2151</v>
@@ -5948,13 +5942,13 @@
         <v>1847528</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +6004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD5CD70-E060-4839-B9CC-C26597D69D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11A0671-9D04-44F0-A04D-8338D47EB086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6FCB83E-10AF-4ED0-9A83-BDE3726F2660}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0FAC262D-7D40-461B-9FCD-7CC623E7ADE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="374">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,1300 +68,1099 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74101669-3CF9-4BFA-843F-DA11E99089CD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923F371-EA68-4EB6-8734-7DE85017319C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="D4" s="7">
-        <v>36630</v>
+        <v>152322</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1906,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="I4" s="7">
-        <v>46654</v>
+        <v>205193</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="N4" s="7">
-        <v>83284</v>
+        <v>357515</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>534</v>
       </c>
       <c r="D5" s="7">
-        <v>78728</v>
+        <v>541690</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1957,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="I5" s="7">
-        <v>66101</v>
+        <v>483158</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1972,10 +1771,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>149</v>
+        <v>1027</v>
       </c>
       <c r="N5" s="7">
-        <v>144829</v>
+        <v>1024848</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1993,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2023,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="D7" s="7">
-        <v>115692</v>
+        <v>206918</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2061,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="I7" s="7">
-        <v>158539</v>
+        <v>264456</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2076,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="N7" s="7">
-        <v>274231</v>
+        <v>471374</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2097,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>462</v>
+        <v>703</v>
       </c>
       <c r="D8" s="7">
-        <v>462962</v>
+        <v>754882</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2112,10 +1911,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>416</v>
+        <v>666</v>
       </c>
       <c r="I8" s="7">
-        <v>417057</v>
+        <v>702877</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2127,10 +1926,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>878</v>
+        <v>1369</v>
       </c>
       <c r="N8" s="7">
-        <v>880019</v>
+        <v>1457759</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2148,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +1962,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2178,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1929133</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2201,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7">
-        <v>206918</v>
+        <v>142015</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +2015,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="I10" s="7">
-        <v>264456</v>
+        <v>204426</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2231,10 +2030,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="N10" s="7">
-        <v>471374</v>
+        <v>346441</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2252,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>703</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>754882</v>
+        <v>536494</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2267,10 +2066,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>666</v>
+        <v>484</v>
       </c>
       <c r="I11" s="7">
-        <v>702877</v>
+        <v>479415</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2282,10 +2081,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1369</v>
+        <v>991</v>
       </c>
       <c r="N11" s="7">
-        <v>1457759</v>
+        <v>1015909</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2303,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2117,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967333</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1929133</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2356,10 +2155,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D13" s="7">
-        <v>142015</v>
+        <v>185446</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2371,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7">
-        <v>204426</v>
+        <v>267287</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2386,10 +2185,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>346</v>
+        <v>447</v>
       </c>
       <c r="N13" s="7">
-        <v>346441</v>
+        <v>452734</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2407,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>507</v>
+        <v>798</v>
       </c>
       <c r="D14" s="7">
-        <v>536494</v>
+        <v>755942</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2422,10 +2221,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>484</v>
+        <v>745</v>
       </c>
       <c r="I14" s="7">
-        <v>479415</v>
+        <v>771325</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2437,10 +2236,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>991</v>
+        <v>1543</v>
       </c>
       <c r="N14" s="7">
-        <v>1015909</v>
+        <v>1527266</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2458,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941388</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2287,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980000</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2505,55 +2304,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>195</v>
+        <v>671</v>
       </c>
       <c r="D16" s="7">
-        <v>185446</v>
+        <v>686702</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>908</v>
+      </c>
+      <c r="I16" s="7">
+        <v>941362</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>252</v>
-      </c>
-      <c r="I16" s="7">
-        <v>267287</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1579</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1628064</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>447</v>
-      </c>
-      <c r="N16" s="7">
-        <v>452734</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,49 +2361,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>798</v>
+        <v>2542</v>
       </c>
       <c r="D17" s="7">
-        <v>755942</v>
+        <v>2589007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2436775</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>745</v>
-      </c>
-      <c r="I17" s="7">
-        <v>771325</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5025783</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1543</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1527266</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941388</v>
+        <v>3275709</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3378137</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2442,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6509</v>
       </c>
       <c r="N18" s="7">
-        <v>1980000</v>
+        <v>6653847</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2659,171 +2458,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>671</v>
-      </c>
-      <c r="D19" s="7">
-        <v>686702</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>908</v>
-      </c>
-      <c r="I19" s="7">
-        <v>941363</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1579</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1628064</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2542</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2589007</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2388</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2436775</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4930</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5025783</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275709</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3378138</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6653847</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2836,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AE9C48-E655-4B89-9FB0-9FD8E4978BAB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F79A3-77F6-496E-A4EA-A0005EC58862}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2853,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,49 +2597,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="D4" s="7">
-        <v>51723</v>
+        <v>289570</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>303</v>
       </c>
       <c r="I4" s="7">
-        <v>69768</v>
+        <v>328344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
+        <v>582</v>
+      </c>
+      <c r="N4" s="7">
+        <v>617914</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="7">
-        <v>121491</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="D5" s="7">
-        <v>64042</v>
+        <v>412828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="I5" s="7">
-        <v>42137</v>
+        <v>368706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>741</v>
       </c>
       <c r="N5" s="7">
-        <v>106179</v>
+        <v>781534</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702398</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3086,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1399448</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3109,49 +2752,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="D7" s="7">
-        <v>237847</v>
+        <v>345510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>423</v>
       </c>
       <c r="I7" s="7">
-        <v>258576</v>
+        <v>461550</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>467</v>
+        <v>744</v>
       </c>
       <c r="N7" s="7">
-        <v>496423</v>
+        <v>807060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>327</v>
+        <v>611</v>
       </c>
       <c r="D8" s="7">
-        <v>348786</v>
+        <v>668386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>308</v>
+        <v>515</v>
       </c>
       <c r="I8" s="7">
-        <v>326569</v>
+        <v>567549</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>635</v>
+        <v>1126</v>
       </c>
       <c r="N8" s="7">
-        <v>675355</v>
+        <v>1235935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>586633</v>
+        <v>1013896</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1029099</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1870</v>
       </c>
       <c r="N9" s="7">
-        <v>1171778</v>
+        <v>2042995</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3264,49 +2907,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7">
-        <v>345510</v>
+        <v>206342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="I10" s="7">
-        <v>461550</v>
+        <v>266699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>744</v>
+        <v>424</v>
       </c>
       <c r="N10" s="7">
-        <v>807060</v>
+        <v>473041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +2958,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="D11" s="7">
-        <v>668386</v>
+        <v>549196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="I11" s="7">
-        <v>567549</v>
+        <v>509414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1126</v>
+        <v>967</v>
       </c>
       <c r="N11" s="7">
-        <v>1235935</v>
+        <v>1058610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1013896</v>
+        <v>755538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1029099</v>
+        <v>776113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1870</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2042995</v>
+        <v>1531651</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3419,49 +3062,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="D13" s="7">
-        <v>206342</v>
+        <v>386886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>237</v>
+        <v>550</v>
       </c>
       <c r="I13" s="7">
-        <v>266699</v>
+        <v>581201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>424</v>
+        <v>915</v>
       </c>
       <c r="N13" s="7">
-        <v>473041</v>
+        <v>968087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3113,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="D14" s="7">
-        <v>549196</v>
+        <v>560853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="I14" s="7">
-        <v>509414</v>
+        <v>465014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="N14" s="7">
-        <v>1058610</v>
+        <v>1025867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>755538</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>776113</v>
+        <v>1046215</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1531651</v>
+        <v>1993954</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3568,55 +3211,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>365</v>
+        <v>1152</v>
       </c>
       <c r="D16" s="7">
-        <v>386886</v>
+        <v>1228309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>550</v>
+        <v>1513</v>
       </c>
       <c r="I16" s="7">
-        <v>581201</v>
+        <v>1637794</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>915</v>
+        <v>2665</v>
       </c>
       <c r="N16" s="7">
-        <v>968087</v>
+        <v>2866103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>545</v>
+        <v>2050</v>
       </c>
       <c r="D17" s="7">
-        <v>560853</v>
+        <v>2191262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>449</v>
+        <v>1778</v>
       </c>
       <c r="I17" s="7">
-        <v>465014</v>
+        <v>1910683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>994</v>
+        <v>3828</v>
       </c>
       <c r="N17" s="7">
-        <v>1025867</v>
+        <v>4101946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3419571</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3334,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>3291</v>
       </c>
       <c r="I18" s="7">
-        <v>1046215</v>
+        <v>3548477</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3706,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6493</v>
       </c>
       <c r="N18" s="7">
-        <v>1993954</v>
+        <v>6968049</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3722,171 +3365,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1152</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1228309</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1513</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1637794</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2665</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2866102</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2050</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2191263</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1778</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1910683</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3828</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4101946</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419572</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3291</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3548477</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6493</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6968048</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3899,8 +3386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE89B7-1468-4298-BBFD-4E88D5BC60E3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2293A1E3-08D5-4B4F-944F-66FAB68C89FB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3916,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,49 +3504,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="D4" s="7">
-        <v>50058</v>
+        <v>218329</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="I4" s="7">
-        <v>53269</v>
+        <v>262914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>101</v>
+        <v>469</v>
       </c>
       <c r="N4" s="7">
-        <v>103328</v>
+        <v>481243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +3555,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="D5" s="7">
-        <v>65456</v>
+        <v>452398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="I5" s="7">
-        <v>60091</v>
+        <v>407030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>126</v>
+        <v>842</v>
       </c>
       <c r="N5" s="7">
-        <v>125546</v>
+        <v>859428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>115514</v>
+        <v>670727</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3621,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>669944</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4149,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1311</v>
       </c>
       <c r="N6" s="7">
-        <v>228874</v>
+        <v>1340671</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4172,49 +3659,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7">
-        <v>168271</v>
+        <v>244605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="I7" s="7">
-        <v>209644</v>
+        <v>306646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>368</v>
+        <v>506</v>
       </c>
       <c r="N7" s="7">
-        <v>377915</v>
+        <v>551251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +3710,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>374</v>
+        <v>727</v>
       </c>
       <c r="D8" s="7">
-        <v>386942</v>
+        <v>776740</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>342</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>346940</v>
+        <v>735174</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>716</v>
+        <v>1420</v>
       </c>
       <c r="N8" s="7">
-        <v>733882</v>
+        <v>1511914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>536</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>555213</v>
+        <v>1021345</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +3776,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>556584</v>
+        <v>1041820</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4304,10 +3791,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1084</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1111797</v>
+        <v>2063165</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,49 +3814,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7">
-        <v>244605</v>
+        <v>177931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="I10" s="7">
-        <v>306646</v>
+        <v>252126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="N10" s="7">
-        <v>551251</v>
+        <v>430057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>727</v>
+        <v>520</v>
       </c>
       <c r="D11" s="7">
-        <v>776740</v>
+        <v>571448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>693</v>
+        <v>497</v>
       </c>
       <c r="I11" s="7">
-        <v>735174</v>
+        <v>526413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
-        <v>1420</v>
+        <v>1017</v>
       </c>
       <c r="N11" s="7">
-        <v>1511914</v>
+        <v>1097861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1021345</v>
+        <v>749379</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1041820</v>
+        <v>778539</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4459,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1418</v>
       </c>
       <c r="N12" s="7">
-        <v>2063165</v>
+        <v>1527918</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4482,49 +3969,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="D13" s="7">
-        <v>177931</v>
+        <v>294472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="I13" s="7">
-        <v>252126</v>
+        <v>426527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>401</v>
+        <v>668</v>
       </c>
       <c r="N13" s="7">
-        <v>430057</v>
+        <v>721000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +4020,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>520</v>
+        <v>644</v>
       </c>
       <c r="D14" s="7">
-        <v>571448</v>
+        <v>641248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="I14" s="7">
-        <v>526413</v>
+        <v>610954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>1017</v>
+        <v>1215</v>
       </c>
       <c r="N14" s="7">
-        <v>1097861</v>
+        <v>1252201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>930</v>
       </c>
       <c r="D15" s="7">
-        <v>749379</v>
+        <v>935720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>953</v>
       </c>
       <c r="I15" s="7">
-        <v>778539</v>
+        <v>1037481</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1418</v>
+        <v>1883</v>
       </c>
       <c r="N15" s="7">
-        <v>1527918</v>
+        <v>1973201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4118,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>286</v>
+        <v>887</v>
       </c>
       <c r="D16" s="7">
-        <v>294472</v>
+        <v>935337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>382</v>
+        <v>1157</v>
       </c>
       <c r="I16" s="7">
-        <v>426527</v>
+        <v>1248213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>668</v>
+        <v>2044</v>
       </c>
       <c r="N16" s="7">
-        <v>721000</v>
+        <v>2183550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4175,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>644</v>
+        <v>2329</v>
       </c>
       <c r="D17" s="7">
-        <v>641248</v>
+        <v>2441834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>571</v>
+        <v>2165</v>
       </c>
       <c r="I17" s="7">
-        <v>610954</v>
+        <v>2279571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>1215</v>
+        <v>4494</v>
       </c>
       <c r="N17" s="7">
-        <v>1252201</v>
+        <v>4721406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>930</v>
+        <v>3216</v>
       </c>
       <c r="D18" s="7">
-        <v>935720</v>
+        <v>3377171</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4241,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>953</v>
+        <v>3322</v>
       </c>
       <c r="I18" s="7">
-        <v>1037481</v>
+        <v>3527784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1883</v>
+        <v>6538</v>
       </c>
       <c r="N18" s="7">
-        <v>1973201</v>
+        <v>6904956</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4785,171 +4272,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>887</v>
-      </c>
-      <c r="D19" s="7">
-        <v>935337</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1157</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1248213</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2183550</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2329</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2441835</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2165</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2279571</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4494</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4721406</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377172</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3322</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3527784</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6538</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6904956</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4962,8 +4293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97A696-F47B-4C06-9E94-65B4728976D3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEB1FBB-B476-4AE1-9896-A58B3F198C98}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4979,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,49 +4411,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="D4" s="7">
-        <v>67945</v>
+        <v>442875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>191</v>
+        <v>959</v>
       </c>
       <c r="I4" s="7">
-        <v>101382</v>
+        <v>512954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>267</v>
+        <v>1476</v>
       </c>
       <c r="N4" s="7">
-        <v>169328</v>
+        <v>955829</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +4462,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>32960</v>
+        <v>190795</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>29351</v>
+        <v>161718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
-        <v>93</v>
+        <v>488</v>
       </c>
       <c r="N5" s="7">
-        <v>62310</v>
+        <v>352513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5197,10 +4528,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674672</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5212,10 +4543,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1308342</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5235,49 +4566,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>441</v>
+        <v>710</v>
       </c>
       <c r="D7" s="7">
-        <v>392955</v>
+        <v>924285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
-        <v>768</v>
+        <v>1223</v>
       </c>
       <c r="I7" s="7">
-        <v>452148</v>
+        <v>763056</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
-        <v>1209</v>
+        <v>1933</v>
       </c>
       <c r="N7" s="7">
-        <v>845103</v>
+        <v>1687341</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +4617,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="D8" s="7">
-        <v>156084</v>
+        <v>267771</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="I8" s="7">
-        <v>139653</v>
+        <v>193104</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
-        <v>395</v>
+        <v>543</v>
       </c>
       <c r="N8" s="7">
-        <v>295737</v>
+        <v>460875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549039</v>
+        <v>1192056</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5352,10 +4683,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>591801</v>
+        <v>956160</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5367,10 +4698,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1140840</v>
+        <v>2148216</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5390,49 +4721,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>710</v>
+        <v>476</v>
       </c>
       <c r="D10" s="7">
-        <v>776736</v>
+        <v>474035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>1223</v>
+        <v>774</v>
       </c>
       <c r="I10" s="7">
-        <v>849474</v>
+        <v>733101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>1933</v>
+        <v>1250</v>
       </c>
       <c r="N10" s="7">
-        <v>1626211</v>
+        <v>1207136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +4772,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>261652</v>
+        <v>230645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="I11" s="7">
-        <v>207686</v>
+        <v>200265</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="N11" s="7">
-        <v>469338</v>
+        <v>430910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038388</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5507,10 +4838,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1057160</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5522,10 +4853,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2095549</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5545,49 +4876,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>476</v>
+        <v>722</v>
       </c>
       <c r="D13" s="7">
-        <v>493270</v>
+        <v>634575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
-        <v>774</v>
+        <v>1195</v>
       </c>
       <c r="I13" s="7">
-        <v>661736</v>
+        <v>834652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>1250</v>
+        <v>1917</v>
       </c>
       <c r="N13" s="7">
-        <v>1155005</v>
+        <v>1469227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +4927,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>235502</v>
+        <v>291384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="I14" s="7">
-        <v>212635</v>
+        <v>259027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>473</v>
+        <v>647</v>
       </c>
       <c r="N14" s="7">
-        <v>448137</v>
+        <v>550411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925959</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +4993,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5677,10 +5008,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019638</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5694,55 +5025,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>722</v>
+        <v>2425</v>
       </c>
       <c r="D16" s="7">
-        <v>673938</v>
+        <v>2475771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>1195</v>
+        <v>4151</v>
       </c>
       <c r="I16" s="7">
-        <v>867491</v>
+        <v>2843761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>1917</v>
+        <v>6576</v>
       </c>
       <c r="N16" s="7">
-        <v>1541429</v>
+        <v>5319533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5082,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>282</v>
+        <v>946</v>
       </c>
       <c r="D17" s="7">
-        <v>290492</v>
+        <v>980595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>365</v>
+        <v>1205</v>
       </c>
       <c r="I17" s="7">
-        <v>281514</v>
+        <v>814115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>647</v>
+        <v>2151</v>
       </c>
       <c r="N17" s="7">
-        <v>572006</v>
+        <v>1794710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,10 +5133,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>964430</v>
+        <v>3456366</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5817,10 +5148,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1149005</v>
+        <v>3657876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5832,10 +5163,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2113435</v>
+        <v>7114243</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5848,171 +5179,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2425</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2404845</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4151</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2932231</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6576</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5337076</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>946</v>
-      </c>
-      <c r="D20" s="7">
-        <v>976689</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1205</v>
-      </c>
-      <c r="I20" s="7">
-        <v>870839</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2151</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1847528</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
